--- a/13/2/2/2/FRP por tipo de riesgo 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FRP por tipo de riesgo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Serie</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4569,6 +4572,29 @@
         <v>2331</v>
       </c>
     </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174">
+        <v>7479</v>
+      </c>
+      <c r="D174">
+        <v>3716</v>
+      </c>
+      <c r="E174">
+        <v>-33</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>1447</v>
+      </c>
+      <c r="H174">
+        <v>2349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/2/FRP por tipo de riesgo 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FRP por tipo de riesgo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Serie</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -914,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4595,6 +4598,29 @@
         <v>2349</v>
       </c>
     </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175">
+        <v>7521</v>
+      </c>
+      <c r="D175">
+        <v>3705</v>
+      </c>
+      <c r="E175">
+        <v>-39</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>1447</v>
+      </c>
+      <c r="H175">
+        <v>2408</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/2/FRP por tipo de riesgo 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FRP por tipo de riesgo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Serie</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4621,6 +4624,29 @@
         <v>2408</v>
       </c>
     </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176">
+        <v>7331</v>
+      </c>
+      <c r="D176">
+        <v>3633</v>
+      </c>
+      <c r="E176">
+        <v>-36</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>1427</v>
+      </c>
+      <c r="H176">
+        <v>2308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
